--- a/dataset/sql_datasets/participates_in.xlsx
+++ b/dataset/sql_datasets/participates_in.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B9B1FB-0916-43FE-9931-A22823C19CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D4A24C-AF03-4636-9C23-301598D5EF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="28995" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,8 +351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7475"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="A343" sqref="A343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54402,7 +54398,7 @@
         <v>5914</v>
       </c>
       <c r="B6755">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6756" spans="1:2" x14ac:dyDescent="0.25">
